--- a/datasets/clean/all_data.xlsx
+++ b/datasets/clean/all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CognitiveEncoding\datasets\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9D5ABA-FA8A-478A-BD3A-E3857F25707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C943C56E-84BA-4710-86ED-A6FF1C426A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14982,7 +14982,7 @@
   <dimension ref="A1:I2424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
